--- a/FFFFullDOEComplete.xlsx
+++ b/FFFFullDOEComplete.xlsx
@@ -13,7 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+  <si>
+    <t>CrsSpeed</t>
+  </si>
+  <si>
+    <t>BattSpecEn</t>
+  </si>
+  <si>
+    <t>P_Wem</t>
+  </si>
+  <si>
+    <t>P_Weg</t>
+  </si>
+  <si>
+    <t>LamTko</t>
+  </si>
+  <si>
+    <t>LamClb</t>
+  </si>
+  <si>
+    <t>LDInc</t>
+  </si>
+  <si>
+    <t>MaxPax</t>
+  </si>
+  <si>
+    <t>PropArch</t>
+  </si>
+  <si>
+    <t>NumDTE</t>
+  </si>
+  <si>
+    <t>SerCells</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>MTOW</t>
+  </si>
   <si>
     <t>CrsSpeed</t>
   </si>
@@ -195,43 +234,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
